--- a/pred_ohlcv/54_21/2020-01-19 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 HDAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-322914.59825755</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-319344.52915755</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-436348.6426372299</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-467887.94573723</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-403931.47763723</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-401481.47763723</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-408221.47763723</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-405732.10443723</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-494387.92973723</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-502587.92973723</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-502587.92973723</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-500634.80473723</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-217576.1722534799</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-350311.8005333599</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-350311.8005333599</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-419184.4734333599</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-802011.2318295599</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-802415.2996295599</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-802415.2996295599</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 HDAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-322914.59825755</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-319344.52915755</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-319344.52915755</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-436348.6426372299</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-467887.94573723</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-494387.92973723</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-502587.92973723</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-500634.80473723</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-510805.46353723</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-492437.96173723</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-492050.4599372299</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-502050.4599372299</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-502030.4599372299</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-394689.8353534799</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-217576.1722534799</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-350311.8005333599</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-350311.8005333599</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-419184.4734333599</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-802011.2318295599</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-802415.2996295599</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-802415.2996295599</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
